--- a/medicine/Enfance/L'Ascension_d'Emily/L'Ascension_d'Emily.xlsx
+++ b/medicine/Enfance/L'Ascension_d'Emily/L'Ascension_d'Emily.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ascension_d%27Emily</t>
+          <t>L'Ascension_d'Emily</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Après Émilie de la Nouvelle Lune, L'Ascension d'Emily est le deuxième tome d'une série de romans jeunesse de l'autrice canadienne Lucy Maud Montgomery, publié pour la première fois en 1925. Ce roman mêle les aventures de sa nouvelle héroïne[1] nommée Emily à certaines pages copiées à partir du journal de ses premières années. Les éléments biographiques ont fortement influencé la trilogie Emily. Il précède le roman La Quête d'Emily.
+Après Émilie de la Nouvelle Lune, L'Ascension d'Emily est le deuxième tome d'une série de romans jeunesse de l'autrice canadienne Lucy Maud Montgomery, publié pour la première fois en 1925. Ce roman mêle les aventures de sa nouvelle héroïne nommée Emily à certaines pages copiées à partir du journal de ses premières années. Les éléments biographiques ont fortement influencé la trilogie Emily. Il précède le roman La Quête d'Emily.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ascension_d%27Emily</t>
+          <t>L'Ascension_d'Emily</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans le poème À la gentiane frangée[2],[3] que se lisent les objectifs et ambitions littéraires de Montgomery[4]. Et comme elle, Emily gravit la symbolique « voie alpine » pour devenir une écrivaine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans le poème À la gentiane frangée, que se lisent les objectifs et ambitions littéraires de Montgomery. Et comme elle, Emily gravit la symbolique « voie alpine » pour devenir une écrivaine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Ascension_d%27Emily</t>
+          <t>L'Ascension_d'Emily</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Emily Byrd Starr aspire à poursuivre ses études à Queen's, où elle pourrait obtenir un diplôme d'enseignante, mais sa famille, pétrie des traditions de New Moon, refuse. On lui offre cependant la chance d'aller au lycée de Shrewsbury, où vont ses amis Ilse, Perry et Teddy, à deux conditions. La première est qu'elle aille vivre chez sa tante Ruth, qu'elle n'apprécie pas, mais c'est surtout la seconde qui va poser problème à Emily. Pendant les trois de ses études secondaires, elle devra (en dehors du travail scolaire) abandonner l'écriture. Emily refuse d'abord l'offre, incapable d'envisager une vie sans écriture. Cousin Jimmy parvient alors à modifier légèrement cette condition, de telle façon qu'Emily aura le droit d'écrire, mais uniquement des choses vraies, et non plus de la fiction ou des rêveries. Emily n'est pas satisfaite du compromis, mais il va s'avérer être un excellent exercice pour sa carrière d'écrivaine naissante.
 Chez l'indiscrète Tante Ruth, Emily peine à se faire respecter, et on la soupçonne de mentir en permanence. Elle ira même, après plus d'un an jusqu'à parcourir les sept miles qui la séparent de New Moon en pleine nuit, pour revenir après avoir pleinement exprimé son chagrin à Cousin Jimmy, son confident.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Ascension_d%27Emily</t>
+          <t>L'Ascension_d'Emily</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
